--- a/Participant_Images/101/101_WTP.xlsx
+++ b/Participant_Images/101/101_WTP.xlsx
@@ -1,128 +1,169 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/melanieruiz/Desktop/WTP_SM_Choice/Participant_Images/101/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/melanieruiz/Desktop/Rej_WTP_Choice/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18DE3A8D-88D3-3E47-82E0-1B544BC9789C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{578593AC-74E8-AB45-9DF7-147686869C01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11460" yWindow="760" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1100" yWindow="820" windowWidth="28040" windowHeight="17440"/>
   </bookViews>
   <sheets>
-    <sheet name="101_WTP_1" sheetId="1" r:id="rId1"/>
+    <sheet name="101_trials" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="31">
-  <si>
-    <t>social_left</t>
-  </si>
-  <si>
-    <t>Left_Exp</t>
-  </si>
-  <si>
-    <t>Right_Exp</t>
-  </si>
-  <si>
-    <t>leftmoney</t>
-  </si>
-  <si>
-    <t>rightmoney</t>
-  </si>
-  <si>
-    <t>greenText</t>
-  </si>
-  <si>
-    <t>left_more_than_right</t>
-  </si>
-  <si>
-    <t>matching_prices</t>
-  </si>
-  <si>
-    <t>social_worthmore</t>
-  </si>
-  <si>
-    <t>Rearranging furniture in your house</t>
-  </si>
-  <si>
-    <t>Going to a carnival with friends</t>
-  </si>
-  <si>
-    <t>green</t>
-  </si>
-  <si>
-    <t>Watching a new episode of a television show</t>
-  </si>
-  <si>
-    <t>Having a picnic with family</t>
-  </si>
-  <si>
-    <t>Painting your bedroom
-a new color</t>
-  </si>
-  <si>
-    <t>Having a romantic dinner with a significant other</t>
-  </si>
-  <si>
-    <t>Playing with a pet</t>
-  </si>
-  <si>
-    <t>Studying abroad with friends</t>
-  </si>
-  <si>
-    <t>Reading a book</t>
-  </si>
-  <si>
-    <t>Going to a friend’s birthday party</t>
-  </si>
-  <si>
-    <t>Listening to music
-by yourself</t>
-  </si>
-  <si>
-    <t>Giving a friend a ride
-to school</t>
-  </si>
-  <si>
-    <t>Writing journal entries</t>
-  </si>
-  <si>
-    <t>Going to a nightclub with a group of friends</t>
-  </si>
-  <si>
-    <t>Looking through old photo albums</t>
-  </si>
-  <si>
-    <t>Having a movie marathon with a roommate</t>
-  </si>
-  <si>
-    <t>Studying for a test alone</t>
-  </si>
-  <si>
-    <t>Playing cards with friends</t>
-  </si>
-  <si>
-    <t>Going to the beach alone</t>
-  </si>
-  <si>
-    <t>Shopping for clothes
-with friends</t>
-  </si>
-  <si>
-    <t>ITI</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="46">
+  <si>
+    <t>TrialNumber</t>
+  </si>
+  <si>
+    <t>Partner</t>
+  </si>
+  <si>
+    <t>Condition</t>
+  </si>
+  <si>
+    <t>Photos</t>
+  </si>
+  <si>
+    <t>Feedback</t>
+  </si>
+  <si>
+    <t>FeedbackWait</t>
+  </si>
+  <si>
+    <t>Alex</t>
+  </si>
+  <si>
+    <t>Neutral</t>
+  </si>
+  <si>
+    <t>Participant_Images/101/101_Images/101_Image_24.jpg</t>
+  </si>
+  <si>
+    <t>did not like</t>
+  </si>
+  <si>
+    <t>Participant_Images/101/101_Images/101_Image_9.jpg</t>
+  </si>
+  <si>
+    <t>Participant_Images/101/101_Images/101_Image_4.jpg</t>
+  </si>
+  <si>
+    <t>liked</t>
+  </si>
+  <si>
+    <t>Participant_Images/101/101_Images/101_Image_1.jpg</t>
+  </si>
+  <si>
+    <t>Participant_Images/101/101_Images/101_Image_3.jpg</t>
+  </si>
+  <si>
+    <t>Participant_Images/101/101_Images/101_Image_13.jpg</t>
+  </si>
+  <si>
+    <t>Participant_Images/101/101_Images/101_Image_2.jpg</t>
+  </si>
+  <si>
+    <t>Participant_Images/101/101_Images/101_Image_25.jpg</t>
+  </si>
+  <si>
+    <t>Participant_Images/101/101_Images/101_Image_8.jpg</t>
+  </si>
+  <si>
+    <t>Participant_Images/101/101_Images/101_Image_7.jpg</t>
+  </si>
+  <si>
+    <t>Participant_Images/101/101_Images/101_Image_27.jpg</t>
+  </si>
+  <si>
+    <t>Participant_Images/101/101_Images/101_Image_10.jpg</t>
+  </si>
+  <si>
+    <t>Participant_Images/101/101_Images/101_Image_20.jpg</t>
+  </si>
+  <si>
+    <t>Participant_Images/101/101_Images/101_Image_14.jpg</t>
+  </si>
+  <si>
+    <t>Participant_Images/101/101_Images/101_Image_21.jpg</t>
+  </si>
+  <si>
+    <t>Participant_Images/101/101_Images/101_Image_5.jpg</t>
+  </si>
+  <si>
+    <t>Participant_Images/101/101_Images/101_Image_17.jpg</t>
+  </si>
+  <si>
+    <t>Participant_Images/101/101_Images/101_Image_26.jpg</t>
+  </si>
+  <si>
+    <t>Participant_Images/101/101_Images/101_Image_30.jpg</t>
+  </si>
+  <si>
+    <t>Participant_Images/101/101_Images/101_Image_28.jpg</t>
+  </si>
+  <si>
+    <t>Participant_Images/101/101_Images/101_Image_23.jpg</t>
+  </si>
+  <si>
+    <t>Participant_Images/101/101_Images/101_Image_16.jpg</t>
+  </si>
+  <si>
+    <t>Participant_Images/101/101_Images/101_Image_29.jpg</t>
+  </si>
+  <si>
+    <t>Participant_Images/101/101_Images/101_Image_22.jpg</t>
+  </si>
+  <si>
+    <t>Participant_Images/101/101_Images/101_Image_12.jpg</t>
+  </si>
+  <si>
+    <t>Participant_Images/101/101_Images/101_Image_15.jpg</t>
+  </si>
+  <si>
+    <t>Participant_Images/101/101_Images/101_Image_19.jpg</t>
+  </si>
+  <si>
+    <t>Participant_Images/101/101_Images/101_Image_18.jpg</t>
+  </si>
+  <si>
+    <t>Participant_Images/101/101_Images/101_Image_6.jpg</t>
+  </si>
+  <si>
+    <t>Participant_Images/101/101_Images/101_Image_11.jpg</t>
+  </si>
+  <si>
+    <t>Taylor</t>
+  </si>
+  <si>
+    <t>Acc</t>
+  </si>
+  <si>
+    <t>Riley</t>
+  </si>
+  <si>
+    <t>Sam</t>
+  </si>
+  <si>
+    <t>Rej</t>
+  </si>
+  <si>
+    <t>Charlie</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -600,11 +641,8 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -959,16 +997,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F151"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+      <selection activeCell="D151" sqref="D151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="48.83203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -979,345 +1020,3013 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2">
+        <v>3.6132056050000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3">
+        <v>4.9884464309999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4">
+        <v>3.4707918219999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5">
+        <v>3.8205724619999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6">
+        <v>2.455989137</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7">
+        <v>3.7960509199999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8">
+        <v>3.5624163260000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9">
+        <v>2.8438224970000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10">
+        <v>3.546495948</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11">
+        <v>1.6720127060000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12">
+        <v>4.9421721359999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13">
+        <v>2.5018721400000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14">
+        <v>2.0711647790000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15">
+        <v>5.3365035660000002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16">
+        <v>2.6421571930000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E17" t="s">
+        <v>9</v>
+      </c>
+      <c r="F17">
+        <v>4.4562343220000002</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" t="s">
+        <v>26</v>
+      </c>
+      <c r="E18" t="s">
+        <v>9</v>
+      </c>
+      <c r="F18">
+        <v>4.4385121810000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" t="s">
+        <v>27</v>
+      </c>
+      <c r="E19" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19">
+        <v>2.6829447829999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" t="s">
+        <v>28</v>
+      </c>
+      <c r="E20" t="s">
+        <v>12</v>
+      </c>
+      <c r="F20">
+        <v>4.5198429600000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" t="s">
+        <v>29</v>
+      </c>
+      <c r="E21" t="s">
+        <v>9</v>
+      </c>
+      <c r="F21">
+        <v>3.195382774</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" t="s">
         <v>30</v>
       </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="E22" t="s">
+        <v>9</v>
+      </c>
+      <c r="F22">
+        <v>1.7793334789999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
+      <c r="C23" t="s">
         <v>7</v>
       </c>
-      <c r="J1" t="s">
+      <c r="D23" t="s">
+        <v>31</v>
+      </c>
+      <c r="E23" t="s">
+        <v>9</v>
+      </c>
+      <c r="F23">
+        <v>4.3124686820000004</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" t="s">
+        <v>7</v>
+      </c>
+      <c r="D24" t="s">
+        <v>32</v>
+      </c>
+      <c r="E24" t="s">
+        <v>9</v>
+      </c>
+      <c r="F24">
+        <v>4.9404330590000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25" t="s">
+        <v>33</v>
+      </c>
+      <c r="E25" t="s">
+        <v>9</v>
+      </c>
+      <c r="F25">
+        <v>2.7105123</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26" t="s">
+        <v>7</v>
+      </c>
+      <c r="D26" t="s">
+        <v>34</v>
+      </c>
+      <c r="E26" t="s">
+        <v>9</v>
+      </c>
+      <c r="F26">
+        <v>3.602308302</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27" t="s">
+        <v>7</v>
+      </c>
+      <c r="D27" t="s">
+        <v>35</v>
+      </c>
+      <c r="E27" t="s">
+        <v>12</v>
+      </c>
+      <c r="F27">
+        <v>4.1063918780000002</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28" t="s">
+        <v>7</v>
+      </c>
+      <c r="D28" t="s">
+        <v>36</v>
+      </c>
+      <c r="E28" t="s">
+        <v>12</v>
+      </c>
+      <c r="F28">
+        <v>3.799433026</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29" t="s">
+        <v>7</v>
+      </c>
+      <c r="D29" t="s">
+        <v>37</v>
+      </c>
+      <c r="E29" t="s">
+        <v>12</v>
+      </c>
+      <c r="F29">
+        <v>5.2469807639999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>6</v>
+      </c>
+      <c r="C30" t="s">
+        <v>7</v>
+      </c>
+      <c r="D30" t="s">
+        <v>38</v>
+      </c>
+      <c r="E30" t="s">
+        <v>12</v>
+      </c>
+      <c r="F30">
+        <v>3.3008176900000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>6</v>
+      </c>
+      <c r="C31" t="s">
+        <v>7</v>
+      </c>
+      <c r="D31" t="s">
+        <v>39</v>
+      </c>
+      <c r="E31" t="s">
+        <v>9</v>
+      </c>
+      <c r="F31">
+        <v>1.661473164</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>40</v>
+      </c>
+      <c r="C32" t="s">
+        <v>41</v>
+      </c>
+      <c r="D32" t="s">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>12</v>
+      </c>
+      <c r="F32">
+        <v>3.6132056050000001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>40</v>
+      </c>
+      <c r="C33" t="s">
+        <v>41</v>
+      </c>
+      <c r="D33" t="s">
+        <v>20</v>
+      </c>
+      <c r="E33" t="s">
+        <v>12</v>
+      </c>
+      <c r="F33">
+        <v>4.9884464309999998</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>40</v>
+      </c>
+      <c r="C34" t="s">
+        <v>41</v>
+      </c>
+      <c r="D34" t="s">
+        <v>17</v>
+      </c>
+      <c r="E34" t="s">
+        <v>9</v>
+      </c>
+      <c r="F34">
+        <v>3.4707918219999998</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>40</v>
+      </c>
+      <c r="C35" t="s">
+        <v>41</v>
+      </c>
+      <c r="D35" t="s">
+        <v>37</v>
+      </c>
+      <c r="E35" t="s">
+        <v>12</v>
+      </c>
+      <c r="F35">
+        <v>3.8205724619999999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>40</v>
+      </c>
+      <c r="C36" t="s">
+        <v>41</v>
+      </c>
+      <c r="D36" t="s">
+        <v>11</v>
+      </c>
+      <c r="E36" t="s">
+        <v>12</v>
+      </c>
+      <c r="F36">
+        <v>2.455989137</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>40</v>
+      </c>
+      <c r="C37" t="s">
+        <v>41</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37" t="s">
+        <v>9</v>
+      </c>
+      <c r="F37">
+        <v>3.7960509199999999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>40</v>
+      </c>
+      <c r="C38" t="s">
+        <v>41</v>
+      </c>
+      <c r="D38" t="s">
+        <v>36</v>
+      </c>
+      <c r="E38" t="s">
+        <v>12</v>
+      </c>
+      <c r="F38">
+        <v>3.5624163260000001</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>40</v>
+      </c>
+      <c r="C39" t="s">
+        <v>41</v>
+      </c>
+      <c r="D39" t="s">
+        <v>35</v>
+      </c>
+      <c r="E39" t="s">
+        <v>9</v>
+      </c>
+      <c r="F39">
+        <v>2.8438224970000001</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>40</v>
+      </c>
+      <c r="C40" t="s">
+        <v>41</v>
+      </c>
+      <c r="D40" t="s">
+        <v>18</v>
+      </c>
+      <c r="E40" t="s">
+        <v>12</v>
+      </c>
+      <c r="F40">
+        <v>3.546495948</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>40</v>
+      </c>
+      <c r="C41" t="s">
+        <v>41</v>
+      </c>
+      <c r="D41" t="s">
+        <v>14</v>
+      </c>
+      <c r="E41" t="s">
+        <v>12</v>
+      </c>
+      <c r="F41">
+        <v>1.6720127060000001</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42" t="s">
+        <v>41</v>
+      </c>
+      <c r="D42" t="s">
+        <v>32</v>
+      </c>
+      <c r="E42" t="s">
+        <v>9</v>
+      </c>
+      <c r="F42">
+        <v>4.9421721359999999</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>40</v>
+      </c>
+      <c r="C43" t="s">
+        <v>41</v>
+      </c>
+      <c r="D43" t="s">
+        <v>26</v>
+      </c>
+      <c r="E43" t="s">
+        <v>9</v>
+      </c>
+      <c r="F43">
+        <v>2.5018721400000001</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>40</v>
+      </c>
+      <c r="C44" t="s">
+        <v>41</v>
+      </c>
+      <c r="D44" t="s">
+        <v>24</v>
+      </c>
+      <c r="E44" t="s">
+        <v>12</v>
+      </c>
+      <c r="F44">
+        <v>2.0711647790000001</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>40</v>
+      </c>
+      <c r="C45" t="s">
+        <v>41</v>
+      </c>
+      <c r="D45" t="s">
+        <v>28</v>
+      </c>
+      <c r="E45" t="s">
+        <v>12</v>
+      </c>
+      <c r="F45">
+        <v>5.3365035660000002</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>40</v>
+      </c>
+      <c r="C46" t="s">
+        <v>41</v>
+      </c>
+      <c r="D46" t="s">
+        <v>29</v>
+      </c>
+      <c r="E46" t="s">
+        <v>12</v>
+      </c>
+      <c r="F46">
+        <v>2.6421571930000001</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>40</v>
+      </c>
+      <c r="C47" t="s">
+        <v>41</v>
+      </c>
+      <c r="D47" t="s">
+        <v>16</v>
+      </c>
+      <c r="E47" t="s">
+        <v>12</v>
+      </c>
+      <c r="F47">
+        <v>4.4562343220000002</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>40</v>
+      </c>
+      <c r="C48" t="s">
+        <v>41</v>
+      </c>
+      <c r="D48" t="s">
+        <v>30</v>
+      </c>
+      <c r="E48" t="s">
+        <v>12</v>
+      </c>
+      <c r="F48">
+        <v>4.4385121810000001</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>40</v>
+      </c>
+      <c r="C49" t="s">
+        <v>41</v>
+      </c>
+      <c r="D49" t="s">
+        <v>15</v>
+      </c>
+      <c r="E49" t="s">
+        <v>12</v>
+      </c>
+      <c r="F49">
+        <v>2.6829447829999999</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>40</v>
+      </c>
+      <c r="C50" t="s">
+        <v>41</v>
+      </c>
+      <c r="D50" t="s">
+        <v>34</v>
+      </c>
+      <c r="E50" t="s">
+        <v>9</v>
+      </c>
+      <c r="F50">
+        <v>4.5198429600000001</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
+        <v>40</v>
+      </c>
+      <c r="C51" t="s">
+        <v>41</v>
+      </c>
+      <c r="D51" t="s">
+        <v>21</v>
+      </c>
+      <c r="E51" t="s">
+        <v>9</v>
+      </c>
+      <c r="F51">
+        <v>3.195382774</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52" t="s">
+        <v>40</v>
+      </c>
+      <c r="C52" t="s">
+        <v>41</v>
+      </c>
+      <c r="D52" t="s">
+        <v>23</v>
+      </c>
+      <c r="E52" t="s">
+        <v>9</v>
+      </c>
+      <c r="F52">
+        <v>1.7793334789999999</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53" t="s">
+        <v>40</v>
+      </c>
+      <c r="C53" t="s">
+        <v>41</v>
+      </c>
+      <c r="D53" t="s">
+        <v>33</v>
+      </c>
+      <c r="E53" t="s">
+        <v>12</v>
+      </c>
+      <c r="F53">
+        <v>4.3124686820000004</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54" t="s">
+        <v>40</v>
+      </c>
+      <c r="C54" t="s">
+        <v>41</v>
+      </c>
+      <c r="D54" t="s">
+        <v>19</v>
+      </c>
+      <c r="E54" t="s">
+        <v>12</v>
+      </c>
+      <c r="F54">
+        <v>4.9404330590000001</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55" t="s">
+        <v>40</v>
+      </c>
+      <c r="C55" t="s">
+        <v>41</v>
+      </c>
+      <c r="D55" t="s">
+        <v>27</v>
+      </c>
+      <c r="E55" t="s">
+        <v>9</v>
+      </c>
+      <c r="F55">
+        <v>2.7105123</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56" t="s">
+        <v>40</v>
+      </c>
+      <c r="C56" t="s">
+        <v>41</v>
+      </c>
+      <c r="D56" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="E56" t="s">
+        <v>12</v>
+      </c>
+      <c r="F56">
+        <v>3.602308302</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57" t="s">
+        <v>40</v>
+      </c>
+      <c r="C57" t="s">
+        <v>41</v>
+      </c>
+      <c r="D57" t="s">
+        <v>13</v>
+      </c>
+      <c r="E57" t="s">
+        <v>12</v>
+      </c>
+      <c r="F57">
+        <v>4.1063918780000002</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58" t="s">
+        <v>40</v>
+      </c>
+      <c r="C58" t="s">
+        <v>41</v>
+      </c>
+      <c r="D58" t="s">
+        <v>38</v>
+      </c>
+      <c r="E58" t="s">
+        <v>12</v>
+      </c>
+      <c r="F58">
+        <v>3.799433026</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59" t="s">
+        <v>40</v>
+      </c>
+      <c r="C59" t="s">
+        <v>41</v>
+      </c>
+      <c r="D59" t="s">
         <v>10</v>
       </c>
-      <c r="D2">
-        <v>4</v>
-      </c>
-      <c r="E2">
-        <v>0.01</v>
-      </c>
-      <c r="F2">
-        <v>0.01</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="E59" t="s">
+        <v>12</v>
+      </c>
+      <c r="F59">
+        <v>5.2469807639999999</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60" t="s">
+        <v>40</v>
+      </c>
+      <c r="C60" t="s">
+        <v>41</v>
+      </c>
+      <c r="D60" t="s">
+        <v>22</v>
+      </c>
+      <c r="E60" t="s">
+        <v>12</v>
+      </c>
+      <c r="F60">
+        <v>3.3008176900000001</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61" t="s">
+        <v>40</v>
+      </c>
+      <c r="C61" t="s">
+        <v>41</v>
+      </c>
+      <c r="D61" t="s">
+        <v>39</v>
+      </c>
+      <c r="E61" t="s">
+        <v>12</v>
+      </c>
+      <c r="F61">
+        <v>1.661473164</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62" t="s">
+        <v>42</v>
+      </c>
+      <c r="C62" t="s">
+        <v>41</v>
+      </c>
+      <c r="D62" t="s">
+        <v>22</v>
+      </c>
+      <c r="E62" t="s">
+        <v>12</v>
+      </c>
+      <c r="F62">
+        <v>3.6132056050000001</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63" t="s">
+        <v>42</v>
+      </c>
+      <c r="C63" t="s">
+        <v>41</v>
+      </c>
+      <c r="D63" t="s">
+        <v>28</v>
+      </c>
+      <c r="E63" t="s">
+        <v>9</v>
+      </c>
+      <c r="F63">
+        <v>4.9884464309999998</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64" t="s">
+        <v>42</v>
+      </c>
+      <c r="C64" t="s">
+        <v>41</v>
+      </c>
+      <c r="D64" t="s">
+        <v>33</v>
+      </c>
+      <c r="E64" t="s">
+        <v>12</v>
+      </c>
+      <c r="F64">
+        <v>3.4707918219999998</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65" t="s">
+        <v>42</v>
+      </c>
+      <c r="C65" t="s">
+        <v>41</v>
+      </c>
+      <c r="D65" t="s">
+        <v>29</v>
+      </c>
+      <c r="E65" t="s">
+        <v>9</v>
+      </c>
+      <c r="F65">
+        <v>3.8205724619999999</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66" t="s">
+        <v>42</v>
+      </c>
+      <c r="C66" t="s">
+        <v>41</v>
+      </c>
+      <c r="D66" t="s">
+        <v>17</v>
+      </c>
+      <c r="E66" t="s">
+        <v>9</v>
+      </c>
+      <c r="F66">
+        <v>2.455989137</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67" t="s">
+        <v>42</v>
+      </c>
+      <c r="C67" t="s">
+        <v>41</v>
+      </c>
+      <c r="D67" t="s">
+        <v>34</v>
+      </c>
+      <c r="E67" t="s">
+        <v>12</v>
+      </c>
+      <c r="F67">
+        <v>3.7960509199999999</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68" t="s">
+        <v>42</v>
+      </c>
+      <c r="C68" t="s">
+        <v>41</v>
+      </c>
+      <c r="D68" t="s">
+        <v>10</v>
+      </c>
+      <c r="E68" t="s">
+        <v>9</v>
+      </c>
+      <c r="F68">
+        <v>3.5624163260000001</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69" t="s">
+        <v>42</v>
+      </c>
+      <c r="C69" t="s">
+        <v>41</v>
+      </c>
+      <c r="D69" t="s">
+        <v>25</v>
+      </c>
+      <c r="E69" t="s">
+        <v>12</v>
+      </c>
+      <c r="F69">
+        <v>2.8438224970000001</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70" t="s">
+        <v>42</v>
+      </c>
+      <c r="C70" t="s">
+        <v>41</v>
+      </c>
+      <c r="D70" t="s">
+        <v>23</v>
+      </c>
+      <c r="E70" t="s">
+        <v>12</v>
+      </c>
+      <c r="F70">
+        <v>3.546495948</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71" t="s">
+        <v>42</v>
+      </c>
+      <c r="C71" t="s">
+        <v>41</v>
+      </c>
+      <c r="D71" t="s">
+        <v>37</v>
+      </c>
+      <c r="E71" t="s">
+        <v>9</v>
+      </c>
+      <c r="F71">
+        <v>1.6720127060000001</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72" t="s">
+        <v>42</v>
+      </c>
+      <c r="C72" t="s">
+        <v>41</v>
+      </c>
+      <c r="D72" t="s">
+        <v>21</v>
+      </c>
+      <c r="E72" t="s">
+        <v>12</v>
+      </c>
+      <c r="F72">
+        <v>4.9421721359999999</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73" t="s">
+        <v>42</v>
+      </c>
+      <c r="C73" t="s">
+        <v>41</v>
+      </c>
+      <c r="D73" t="s">
+        <v>31</v>
+      </c>
+      <c r="E73" t="s">
+        <v>12</v>
+      </c>
+      <c r="F73">
+        <v>2.5018721400000001</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74" t="s">
+        <v>42</v>
+      </c>
+      <c r="C74" t="s">
+        <v>41</v>
+      </c>
+      <c r="D74" t="s">
+        <v>20</v>
+      </c>
+      <c r="E74" t="s">
+        <v>12</v>
+      </c>
+      <c r="F74">
+        <v>2.0711647790000001</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75" t="s">
+        <v>42</v>
+      </c>
+      <c r="C75" t="s">
+        <v>41</v>
+      </c>
+      <c r="D75" t="s">
+        <v>32</v>
+      </c>
+      <c r="E75" t="s">
+        <v>9</v>
+      </c>
+      <c r="F75">
+        <v>5.3365035660000002</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76" t="s">
+        <v>42</v>
+      </c>
+      <c r="C76" t="s">
+        <v>41</v>
+      </c>
+      <c r="D76" t="s">
+        <v>30</v>
+      </c>
+      <c r="E76" t="s">
+        <v>12</v>
+      </c>
+      <c r="F76">
+        <v>2.6421571930000001</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77" t="s">
+        <v>42</v>
+      </c>
+      <c r="C77" t="s">
+        <v>41</v>
+      </c>
+      <c r="D77" t="s">
         <v>11</v>
       </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>1</v>
-      </c>
-      <c r="J2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>0</v>
-      </c>
-      <c r="B3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="E77" t="s">
+        <v>12</v>
+      </c>
+      <c r="F77">
+        <v>4.4562343220000002</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78" t="s">
+        <v>42</v>
+      </c>
+      <c r="C78" t="s">
+        <v>41</v>
+      </c>
+      <c r="D78" t="s">
+        <v>8</v>
+      </c>
+      <c r="E78" t="s">
+        <v>12</v>
+      </c>
+      <c r="F78">
+        <v>4.4385121810000001</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79" t="s">
+        <v>42</v>
+      </c>
+      <c r="C79" t="s">
+        <v>41</v>
+      </c>
+      <c r="D79" t="s">
+        <v>35</v>
+      </c>
+      <c r="E79" t="s">
+        <v>12</v>
+      </c>
+      <c r="F79">
+        <v>2.6829447829999999</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80" t="s">
+        <v>42</v>
+      </c>
+      <c r="C80" t="s">
+        <v>41</v>
+      </c>
+      <c r="D80" t="s">
+        <v>38</v>
+      </c>
+      <c r="E80" t="s">
+        <v>12</v>
+      </c>
+      <c r="F80">
+        <v>4.5198429600000001</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81" t="s">
+        <v>42</v>
+      </c>
+      <c r="C81" t="s">
+        <v>41</v>
+      </c>
+      <c r="D81" t="s">
+        <v>36</v>
+      </c>
+      <c r="E81" t="s">
+        <v>12</v>
+      </c>
+      <c r="F81">
+        <v>3.195382774</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82" t="s">
+        <v>42</v>
+      </c>
+      <c r="C82" t="s">
+        <v>41</v>
+      </c>
+      <c r="D82" t="s">
+        <v>14</v>
+      </c>
+      <c r="E82" t="s">
+        <v>9</v>
+      </c>
+      <c r="F82">
+        <v>1.7793334789999999</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="B83" t="s">
+        <v>42</v>
+      </c>
+      <c r="C83" t="s">
+        <v>41</v>
+      </c>
+      <c r="D83" t="s">
+        <v>19</v>
+      </c>
+      <c r="E83" t="s">
+        <v>12</v>
+      </c>
+      <c r="F83">
+        <v>4.3124686820000004</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84" t="s">
+        <v>42</v>
+      </c>
+      <c r="C84" t="s">
+        <v>41</v>
+      </c>
+      <c r="D84" t="s">
+        <v>18</v>
+      </c>
+      <c r="E84" t="s">
+        <v>9</v>
+      </c>
+      <c r="F84">
+        <v>4.9404330590000001</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="B85" t="s">
+        <v>42</v>
+      </c>
+      <c r="C85" t="s">
+        <v>41</v>
+      </c>
+      <c r="D85" t="s">
+        <v>24</v>
+      </c>
+      <c r="E85" t="s">
+        <v>12</v>
+      </c>
+      <c r="F85">
+        <v>2.7105123</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="B86" t="s">
+        <v>42</v>
+      </c>
+      <c r="C86" t="s">
+        <v>41</v>
+      </c>
+      <c r="D86" t="s">
         <v>13</v>
       </c>
-      <c r="D3">
-        <v>5</v>
-      </c>
-      <c r="E3">
-        <v>0.02</v>
-      </c>
-      <c r="F3">
-        <v>0.01</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="E86" t="s">
+        <v>12</v>
+      </c>
+      <c r="F86">
+        <v>3.602308302</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="B87" t="s">
+        <v>42</v>
+      </c>
+      <c r="C87" t="s">
+        <v>41</v>
+      </c>
+      <c r="D87" t="s">
+        <v>39</v>
+      </c>
+      <c r="E87" t="s">
+        <v>12</v>
+      </c>
+      <c r="F87">
+        <v>4.1063918780000002</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="B88" t="s">
+        <v>42</v>
+      </c>
+      <c r="C88" t="s">
+        <v>41</v>
+      </c>
+      <c r="D88" t="s">
+        <v>27</v>
+      </c>
+      <c r="E88" t="s">
+        <v>9</v>
+      </c>
+      <c r="F88">
+        <v>3.799433026</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="B89" t="s">
+        <v>42</v>
+      </c>
+      <c r="C89" t="s">
+        <v>41</v>
+      </c>
+      <c r="D89" t="s">
+        <v>16</v>
+      </c>
+      <c r="E89" t="s">
+        <v>12</v>
+      </c>
+      <c r="F89">
+        <v>5.2469807639999999</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="B90" t="s">
+        <v>42</v>
+      </c>
+      <c r="C90" t="s">
+        <v>41</v>
+      </c>
+      <c r="D90" t="s">
+        <v>15</v>
+      </c>
+      <c r="E90" t="s">
+        <v>12</v>
+      </c>
+      <c r="F90">
+        <v>3.3008176900000001</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A91">
+        <v>90</v>
+      </c>
+      <c r="B91" t="s">
+        <v>42</v>
+      </c>
+      <c r="C91" t="s">
+        <v>41</v>
+      </c>
+      <c r="D91" t="s">
+        <v>26</v>
+      </c>
+      <c r="E91" t="s">
+        <v>12</v>
+      </c>
+      <c r="F91">
+        <v>1.661473164</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A92">
+        <v>91</v>
+      </c>
+      <c r="B92" t="s">
+        <v>43</v>
+      </c>
+      <c r="C92" t="s">
+        <v>44</v>
+      </c>
+      <c r="D92" t="s">
         <v>11</v>
       </c>
-      <c r="H3">
-        <v>1</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="68" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>0</v>
-      </c>
-      <c r="B4" s="1" t="s">
+      <c r="E92" t="s">
+        <v>12</v>
+      </c>
+      <c r="F92">
+        <v>3.6132056050000001</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A93">
+        <v>92</v>
+      </c>
+      <c r="B93" t="s">
+        <v>43</v>
+      </c>
+      <c r="C93" t="s">
+        <v>44</v>
+      </c>
+      <c r="D93" t="s">
+        <v>24</v>
+      </c>
+      <c r="E93" t="s">
+        <v>9</v>
+      </c>
+      <c r="F93">
+        <v>4.9884464309999998</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A94">
+        <v>93</v>
+      </c>
+      <c r="B94" t="s">
+        <v>43</v>
+      </c>
+      <c r="C94" t="s">
+        <v>44</v>
+      </c>
+      <c r="D94" t="s">
+        <v>31</v>
+      </c>
+      <c r="E94" t="s">
+        <v>9</v>
+      </c>
+      <c r="F94">
+        <v>3.4707918219999998</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A95">
+        <v>94</v>
+      </c>
+      <c r="B95" t="s">
+        <v>43</v>
+      </c>
+      <c r="C95" t="s">
+        <v>44</v>
+      </c>
+      <c r="D95" t="s">
+        <v>18</v>
+      </c>
+      <c r="E95" t="s">
+        <v>12</v>
+      </c>
+      <c r="F95">
+        <v>3.8205724619999999</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A96">
+        <v>95</v>
+      </c>
+      <c r="B96" t="s">
+        <v>43</v>
+      </c>
+      <c r="C96" t="s">
+        <v>44</v>
+      </c>
+      <c r="D96" t="s">
+        <v>35</v>
+      </c>
+      <c r="E96" t="s">
+        <v>12</v>
+      </c>
+      <c r="F96">
+        <v>2.455989137</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A97">
+        <v>96</v>
+      </c>
+      <c r="B97" t="s">
+        <v>43</v>
+      </c>
+      <c r="C97" t="s">
+        <v>44</v>
+      </c>
+      <c r="D97" t="s">
+        <v>22</v>
+      </c>
+      <c r="E97" t="s">
+        <v>9</v>
+      </c>
+      <c r="F97">
+        <v>3.7960509199999999</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A98">
+        <v>97</v>
+      </c>
+      <c r="B98" t="s">
+        <v>43</v>
+      </c>
+      <c r="C98" t="s">
+        <v>44</v>
+      </c>
+      <c r="D98" t="s">
+        <v>26</v>
+      </c>
+      <c r="E98" t="s">
+        <v>9</v>
+      </c>
+      <c r="F98">
+        <v>3.5624163260000001</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A99">
+        <v>98</v>
+      </c>
+      <c r="B99" t="s">
+        <v>43</v>
+      </c>
+      <c r="C99" t="s">
+        <v>44</v>
+      </c>
+      <c r="D99" t="s">
+        <v>27</v>
+      </c>
+      <c r="E99" t="s">
+        <v>9</v>
+      </c>
+      <c r="F99">
+        <v>2.8438224970000001</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A100">
+        <v>99</v>
+      </c>
+      <c r="B100" t="s">
+        <v>43</v>
+      </c>
+      <c r="C100" t="s">
+        <v>44</v>
+      </c>
+      <c r="D100" t="s">
+        <v>33</v>
+      </c>
+      <c r="E100" t="s">
+        <v>9</v>
+      </c>
+      <c r="F100">
+        <v>3.546495948</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A101">
+        <v>100</v>
+      </c>
+      <c r="B101" t="s">
+        <v>43</v>
+      </c>
+      <c r="C101" t="s">
+        <v>44</v>
+      </c>
+      <c r="D101" t="s">
+        <v>19</v>
+      </c>
+      <c r="E101" t="s">
+        <v>9</v>
+      </c>
+      <c r="F101">
+        <v>1.6720127060000001</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A102">
+        <v>101</v>
+      </c>
+      <c r="B102" t="s">
+        <v>43</v>
+      </c>
+      <c r="C102" t="s">
+        <v>44</v>
+      </c>
+      <c r="D102" t="s">
+        <v>17</v>
+      </c>
+      <c r="E102" t="s">
+        <v>12</v>
+      </c>
+      <c r="F102">
+        <v>4.9421721359999999</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A103">
+        <v>102</v>
+      </c>
+      <c r="B103" t="s">
+        <v>43</v>
+      </c>
+      <c r="C103" t="s">
+        <v>44</v>
+      </c>
+      <c r="D103" t="s">
         <v>14</v>
       </c>
-      <c r="C4" t="s">
+      <c r="E103" t="s">
+        <v>9</v>
+      </c>
+      <c r="F103">
+        <v>2.5018721400000001</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A104">
+        <v>103</v>
+      </c>
+      <c r="B104" t="s">
+        <v>43</v>
+      </c>
+      <c r="C104" t="s">
+        <v>44</v>
+      </c>
+      <c r="D104" t="s">
         <v>15</v>
       </c>
-      <c r="D4">
-        <v>6</v>
-      </c>
-      <c r="E4">
-        <v>0.03</v>
-      </c>
-      <c r="F4">
-        <v>0.01</v>
-      </c>
-      <c r="G4" t="s">
+      <c r="E104" t="s">
+        <v>9</v>
+      </c>
+      <c r="F104">
+        <v>2.0711647790000001</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A105">
+        <v>104</v>
+      </c>
+      <c r="B105" t="s">
+        <v>43</v>
+      </c>
+      <c r="C105" t="s">
+        <v>44</v>
+      </c>
+      <c r="D105" t="s">
+        <v>29</v>
+      </c>
+      <c r="E105" t="s">
+        <v>12</v>
+      </c>
+      <c r="F105">
+        <v>5.3365035660000002</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A106">
+        <v>105</v>
+      </c>
+      <c r="B106" t="s">
+        <v>43</v>
+      </c>
+      <c r="C106" t="s">
+        <v>44</v>
+      </c>
+      <c r="D106" t="s">
+        <v>20</v>
+      </c>
+      <c r="E106" t="s">
+        <v>9</v>
+      </c>
+      <c r="F106">
+        <v>2.6421571930000001</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A107">
+        <v>106</v>
+      </c>
+      <c r="B107" t="s">
+        <v>43</v>
+      </c>
+      <c r="C107" t="s">
+        <v>44</v>
+      </c>
+      <c r="D107" t="s">
+        <v>36</v>
+      </c>
+      <c r="E107" t="s">
+        <v>9</v>
+      </c>
+      <c r="F107">
+        <v>4.4562343220000002</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A108">
+        <v>107</v>
+      </c>
+      <c r="B108" t="s">
+        <v>43</v>
+      </c>
+      <c r="C108" t="s">
+        <v>44</v>
+      </c>
+      <c r="D108" t="s">
+        <v>37</v>
+      </c>
+      <c r="E108" t="s">
+        <v>9</v>
+      </c>
+      <c r="F108">
+        <v>4.4385121810000001</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A109">
+        <v>108</v>
+      </c>
+      <c r="B109" t="s">
+        <v>43</v>
+      </c>
+      <c r="C109" t="s">
+        <v>44</v>
+      </c>
+      <c r="D109" t="s">
+        <v>10</v>
+      </c>
+      <c r="E109" t="s">
+        <v>12</v>
+      </c>
+      <c r="F109">
+        <v>2.6829447829999999</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A110">
+        <v>109</v>
+      </c>
+      <c r="B110" t="s">
+        <v>43</v>
+      </c>
+      <c r="C110" t="s">
+        <v>44</v>
+      </c>
+      <c r="D110" t="s">
+        <v>21</v>
+      </c>
+      <c r="E110" t="s">
+        <v>9</v>
+      </c>
+      <c r="F110">
+        <v>4.5198429600000001</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A111">
+        <v>110</v>
+      </c>
+      <c r="B111" t="s">
+        <v>43</v>
+      </c>
+      <c r="C111" t="s">
+        <v>44</v>
+      </c>
+      <c r="D111" t="s">
+        <v>23</v>
+      </c>
+      <c r="E111" t="s">
+        <v>9</v>
+      </c>
+      <c r="F111">
+        <v>3.195382774</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A112">
+        <v>111</v>
+      </c>
+      <c r="B112" t="s">
+        <v>43</v>
+      </c>
+      <c r="C112" t="s">
+        <v>44</v>
+      </c>
+      <c r="D112" t="s">
+        <v>34</v>
+      </c>
+      <c r="E112" t="s">
+        <v>9</v>
+      </c>
+      <c r="F112">
+        <v>1.7793334789999999</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A113">
+        <v>112</v>
+      </c>
+      <c r="B113" t="s">
+        <v>43</v>
+      </c>
+      <c r="C113" t="s">
+        <v>44</v>
+      </c>
+      <c r="D113" t="s">
+        <v>38</v>
+      </c>
+      <c r="E113" t="s">
+        <v>12</v>
+      </c>
+      <c r="F113">
+        <v>4.3124686820000004</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A114">
+        <v>113</v>
+      </c>
+      <c r="B114" t="s">
+        <v>43</v>
+      </c>
+      <c r="C114" t="s">
+        <v>44</v>
+      </c>
+      <c r="D114" t="s">
+        <v>8</v>
+      </c>
+      <c r="E114" t="s">
+        <v>12</v>
+      </c>
+      <c r="F114">
+        <v>4.9404330590000001</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A115">
+        <v>114</v>
+      </c>
+      <c r="B115" t="s">
+        <v>43</v>
+      </c>
+      <c r="C115" t="s">
+        <v>44</v>
+      </c>
+      <c r="D115" t="s">
+        <v>28</v>
+      </c>
+      <c r="E115" t="s">
+        <v>9</v>
+      </c>
+      <c r="F115">
+        <v>2.7105123</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A116">
+        <v>115</v>
+      </c>
+      <c r="B116" t="s">
+        <v>43</v>
+      </c>
+      <c r="C116" t="s">
+        <v>44</v>
+      </c>
+      <c r="D116" t="s">
+        <v>39</v>
+      </c>
+      <c r="E116" t="s">
+        <v>9</v>
+      </c>
+      <c r="F116">
+        <v>3.602308302</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A117">
+        <v>116</v>
+      </c>
+      <c r="B117" t="s">
+        <v>43</v>
+      </c>
+      <c r="C117" t="s">
+        <v>44</v>
+      </c>
+      <c r="D117" t="s">
+        <v>25</v>
+      </c>
+      <c r="E117" t="s">
+        <v>9</v>
+      </c>
+      <c r="F117">
+        <v>4.1063918780000002</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A118">
+        <v>117</v>
+      </c>
+      <c r="B118" t="s">
+        <v>43</v>
+      </c>
+      <c r="C118" t="s">
+        <v>44</v>
+      </c>
+      <c r="D118" t="s">
+        <v>13</v>
+      </c>
+      <c r="E118" t="s">
+        <v>9</v>
+      </c>
+      <c r="F118">
+        <v>3.799433026</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A119">
+        <v>118</v>
+      </c>
+      <c r="B119" t="s">
+        <v>43</v>
+      </c>
+      <c r="C119" t="s">
+        <v>44</v>
+      </c>
+      <c r="D119" t="s">
+        <v>16</v>
+      </c>
+      <c r="E119" t="s">
+        <v>12</v>
+      </c>
+      <c r="F119">
+        <v>5.2469807639999999</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A120">
+        <v>119</v>
+      </c>
+      <c r="B120" t="s">
+        <v>43</v>
+      </c>
+      <c r="C120" t="s">
+        <v>44</v>
+      </c>
+      <c r="D120" t="s">
+        <v>32</v>
+      </c>
+      <c r="E120" t="s">
+        <v>9</v>
+      </c>
+      <c r="F120">
+        <v>3.3008176900000001</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A121">
+        <v>120</v>
+      </c>
+      <c r="B121" t="s">
+        <v>43</v>
+      </c>
+      <c r="C121" t="s">
+        <v>44</v>
+      </c>
+      <c r="D121" t="s">
+        <v>30</v>
+      </c>
+      <c r="E121" t="s">
+        <v>9</v>
+      </c>
+      <c r="F121">
+        <v>1.661473164</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A122">
+        <v>121</v>
+      </c>
+      <c r="B122" t="s">
+        <v>45</v>
+      </c>
+      <c r="C122" t="s">
+        <v>44</v>
+      </c>
+      <c r="D122" t="s">
+        <v>37</v>
+      </c>
+      <c r="E122" t="s">
+        <v>9</v>
+      </c>
+      <c r="F122">
+        <v>3.6132056050000001</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A123">
+        <v>122</v>
+      </c>
+      <c r="B123" t="s">
+        <v>45</v>
+      </c>
+      <c r="C123" t="s">
+        <v>44</v>
+      </c>
+      <c r="D123" t="s">
+        <v>17</v>
+      </c>
+      <c r="E123" t="s">
+        <v>9</v>
+      </c>
+      <c r="F123">
+        <v>4.9884464309999998</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A124">
+        <v>123</v>
+      </c>
+      <c r="B124" t="s">
+        <v>45</v>
+      </c>
+      <c r="C124" t="s">
+        <v>44</v>
+      </c>
+      <c r="D124" t="s">
+        <v>30</v>
+      </c>
+      <c r="E124" t="s">
+        <v>9</v>
+      </c>
+      <c r="F124">
+        <v>3.4707918219999998</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A125">
+        <v>124</v>
+      </c>
+      <c r="B125" t="s">
+        <v>45</v>
+      </c>
+      <c r="C125" t="s">
+        <v>44</v>
+      </c>
+      <c r="D125" t="s">
+        <v>10</v>
+      </c>
+      <c r="E125" t="s">
+        <v>12</v>
+      </c>
+      <c r="F125">
+        <v>3.8205724619999999</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A126">
+        <v>125</v>
+      </c>
+      <c r="B126" t="s">
+        <v>45</v>
+      </c>
+      <c r="C126" t="s">
+        <v>44</v>
+      </c>
+      <c r="D126" t="s">
+        <v>31</v>
+      </c>
+      <c r="E126" t="s">
+        <v>9</v>
+      </c>
+      <c r="F126">
+        <v>2.455989137</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A127">
+        <v>126</v>
+      </c>
+      <c r="B127" t="s">
+        <v>45</v>
+      </c>
+      <c r="C127" t="s">
+        <v>44</v>
+      </c>
+      <c r="D127" t="s">
+        <v>13</v>
+      </c>
+      <c r="E127" t="s">
+        <v>9</v>
+      </c>
+      <c r="F127">
+        <v>3.7960509199999999</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A128">
+        <v>127</v>
+      </c>
+      <c r="B128" t="s">
+        <v>45</v>
+      </c>
+      <c r="C128" t="s">
+        <v>44</v>
+      </c>
+      <c r="D128" t="s">
+        <v>33</v>
+      </c>
+      <c r="E128" t="s">
+        <v>9</v>
+      </c>
+      <c r="F128">
+        <v>3.5624163260000001</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A129">
+        <v>128</v>
+      </c>
+      <c r="B129" t="s">
+        <v>45</v>
+      </c>
+      <c r="C129" t="s">
+        <v>44</v>
+      </c>
+      <c r="D129" t="s">
+        <v>38</v>
+      </c>
+      <c r="E129" t="s">
+        <v>9</v>
+      </c>
+      <c r="F129">
+        <v>2.8438224970000001</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A130">
+        <v>129</v>
+      </c>
+      <c r="B130" t="s">
+        <v>45</v>
+      </c>
+      <c r="C130" t="s">
+        <v>44</v>
+      </c>
+      <c r="D130" t="s">
+        <v>16</v>
+      </c>
+      <c r="E130" t="s">
+        <v>9</v>
+      </c>
+      <c r="F130">
+        <v>3.546495948</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A131">
+        <v>130</v>
+      </c>
+      <c r="B131" t="s">
+        <v>45</v>
+      </c>
+      <c r="C131" t="s">
+        <v>44</v>
+      </c>
+      <c r="D131" t="s">
+        <v>15</v>
+      </c>
+      <c r="E131" t="s">
+        <v>12</v>
+      </c>
+      <c r="F131">
+        <v>1.6720127060000001</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A132">
+        <v>131</v>
+      </c>
+      <c r="B132" t="s">
+        <v>45</v>
+      </c>
+      <c r="C132" t="s">
+        <v>44</v>
+      </c>
+      <c r="D132" t="s">
+        <v>32</v>
+      </c>
+      <c r="E132" t="s">
+        <v>12</v>
+      </c>
+      <c r="F132">
+        <v>4.9421721359999999</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A133">
+        <v>132</v>
+      </c>
+      <c r="B133" t="s">
+        <v>45</v>
+      </c>
+      <c r="C133" t="s">
+        <v>44</v>
+      </c>
+      <c r="D133" t="s">
         <v>11</v>
       </c>
-      <c r="H4">
-        <v>1</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>0</v>
-      </c>
-      <c r="B5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5">
-        <v>0.04</v>
-      </c>
-      <c r="F5">
-        <v>0.01</v>
-      </c>
-      <c r="G5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H5">
-        <v>1</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>0</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="E133" t="s">
+        <v>9</v>
+      </c>
+      <c r="F133">
+        <v>2.5018721400000001</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A134">
+        <v>133</v>
+      </c>
+      <c r="B134" t="s">
+        <v>45</v>
+      </c>
+      <c r="C134" t="s">
+        <v>44</v>
+      </c>
+      <c r="D134" t="s">
+        <v>39</v>
+      </c>
+      <c r="E134" t="s">
+        <v>9</v>
+      </c>
+      <c r="F134">
+        <v>2.0711647790000001</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A135">
+        <v>134</v>
+      </c>
+      <c r="B135" t="s">
+        <v>45</v>
+      </c>
+      <c r="C135" t="s">
+        <v>44</v>
+      </c>
+      <c r="D135" t="s">
+        <v>28</v>
+      </c>
+      <c r="E135" t="s">
+        <v>9</v>
+      </c>
+      <c r="F135">
+        <v>5.3365035660000002</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A136">
+        <v>135</v>
+      </c>
+      <c r="B136" t="s">
+        <v>45</v>
+      </c>
+      <c r="C136" t="s">
+        <v>44</v>
+      </c>
+      <c r="D136" t="s">
+        <v>20</v>
+      </c>
+      <c r="E136" t="s">
+        <v>9</v>
+      </c>
+      <c r="F136">
+        <v>2.6421571930000001</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A137">
+        <v>136</v>
+      </c>
+      <c r="B137" t="s">
+        <v>45</v>
+      </c>
+      <c r="C137" t="s">
+        <v>44</v>
+      </c>
+      <c r="D137" t="s">
+        <v>27</v>
+      </c>
+      <c r="E137" t="s">
+        <v>9</v>
+      </c>
+      <c r="F137">
+        <v>4.4562343220000002</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A138">
+        <v>137</v>
+      </c>
+      <c r="B138" t="s">
+        <v>45</v>
+      </c>
+      <c r="C138" t="s">
+        <v>44</v>
+      </c>
+      <c r="D138" t="s">
+        <v>25</v>
+      </c>
+      <c r="E138" t="s">
+        <v>12</v>
+      </c>
+      <c r="F138">
+        <v>4.4385121810000001</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A139">
+        <v>138</v>
+      </c>
+      <c r="B139" t="s">
+        <v>45</v>
+      </c>
+      <c r="C139" t="s">
+        <v>44</v>
+      </c>
+      <c r="D139" t="s">
+        <v>34</v>
+      </c>
+      <c r="E139" t="s">
+        <v>9</v>
+      </c>
+      <c r="F139">
+        <v>2.6829447829999999</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A140">
+        <v>139</v>
+      </c>
+      <c r="B140" t="s">
+        <v>45</v>
+      </c>
+      <c r="C140" t="s">
+        <v>44</v>
+      </c>
+      <c r="D140" t="s">
+        <v>24</v>
+      </c>
+      <c r="E140" t="s">
+        <v>9</v>
+      </c>
+      <c r="F140">
+        <v>4.5198429600000001</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A141">
+        <v>140</v>
+      </c>
+      <c r="B141" t="s">
+        <v>45</v>
+      </c>
+      <c r="C141" t="s">
+        <v>44</v>
+      </c>
+      <c r="D141" t="s">
+        <v>14</v>
+      </c>
+      <c r="E141" t="s">
+        <v>9</v>
+      </c>
+      <c r="F141">
+        <v>3.195382774</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A142">
+        <v>141</v>
+      </c>
+      <c r="B142" t="s">
+        <v>45</v>
+      </c>
+      <c r="C142" t="s">
+        <v>44</v>
+      </c>
+      <c r="D142" t="s">
+        <v>21</v>
+      </c>
+      <c r="E142" t="s">
+        <v>9</v>
+      </c>
+      <c r="F142">
+        <v>1.7793334789999999</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A143">
+        <v>142</v>
+      </c>
+      <c r="B143" t="s">
+        <v>45</v>
+      </c>
+      <c r="C143" t="s">
+        <v>44</v>
+      </c>
+      <c r="D143" t="s">
+        <v>26</v>
+      </c>
+      <c r="E143" t="s">
+        <v>12</v>
+      </c>
+      <c r="F143">
+        <v>4.3124686820000004</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A144">
+        <v>143</v>
+      </c>
+      <c r="B144" t="s">
+        <v>45</v>
+      </c>
+      <c r="C144" t="s">
+        <v>44</v>
+      </c>
+      <c r="D144" t="s">
+        <v>22</v>
+      </c>
+      <c r="E144" t="s">
+        <v>9</v>
+      </c>
+      <c r="F144">
+        <v>4.9404330590000001</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A145">
+        <v>144</v>
+      </c>
+      <c r="B145" t="s">
+        <v>45</v>
+      </c>
+      <c r="C145" t="s">
+        <v>44</v>
+      </c>
+      <c r="D145" t="s">
+        <v>29</v>
+      </c>
+      <c r="E145" t="s">
+        <v>12</v>
+      </c>
+      <c r="F145">
+        <v>2.7105123</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A146">
+        <v>145</v>
+      </c>
+      <c r="B146" t="s">
+        <v>45</v>
+      </c>
+      <c r="C146" t="s">
+        <v>44</v>
+      </c>
+      <c r="D146" t="s">
         <v>18</v>
       </c>
-      <c r="C6" t="s">
+      <c r="E146" t="s">
+        <v>9</v>
+      </c>
+      <c r="F146">
+        <v>3.602308302</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A147">
+        <v>146</v>
+      </c>
+      <c r="B147" t="s">
+        <v>45</v>
+      </c>
+      <c r="C147" t="s">
+        <v>44</v>
+      </c>
+      <c r="D147" t="s">
+        <v>35</v>
+      </c>
+      <c r="E147" t="s">
+        <v>12</v>
+      </c>
+      <c r="F147">
+        <v>4.1063918780000002</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A148">
+        <v>147</v>
+      </c>
+      <c r="B148" t="s">
+        <v>45</v>
+      </c>
+      <c r="C148" t="s">
+        <v>44</v>
+      </c>
+      <c r="D148" t="s">
+        <v>8</v>
+      </c>
+      <c r="E148" t="s">
+        <v>12</v>
+      </c>
+      <c r="F148">
+        <v>3.799433026</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A149">
+        <v>148</v>
+      </c>
+      <c r="B149" t="s">
+        <v>45</v>
+      </c>
+      <c r="C149" t="s">
+        <v>44</v>
+      </c>
+      <c r="D149" t="s">
+        <v>36</v>
+      </c>
+      <c r="E149" t="s">
+        <v>9</v>
+      </c>
+      <c r="F149">
+        <v>5.2469807639999999</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A150">
+        <v>149</v>
+      </c>
+      <c r="B150" t="s">
+        <v>45</v>
+      </c>
+      <c r="C150" t="s">
+        <v>44</v>
+      </c>
+      <c r="D150" t="s">
         <v>19</v>
       </c>
-      <c r="D6">
-        <v>2</v>
-      </c>
-      <c r="E6">
-        <v>0.05</v>
-      </c>
-      <c r="F6">
-        <v>0.01</v>
-      </c>
-      <c r="G6" t="s">
-        <v>11</v>
-      </c>
-      <c r="H6">
-        <v>1</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="68" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>0</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7">
-        <v>5</v>
-      </c>
-      <c r="E7">
-        <v>0.01</v>
-      </c>
-      <c r="F7">
-        <v>0.02</v>
-      </c>
-      <c r="G7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>0</v>
-      </c>
-      <c r="B8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="E150" t="s">
+        <v>9</v>
+      </c>
+      <c r="F150">
+        <v>3.3008176900000001</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A151">
+        <v>150</v>
+      </c>
+      <c r="B151" t="s">
+        <v>45</v>
+      </c>
+      <c r="C151" t="s">
+        <v>44</v>
+      </c>
+      <c r="D151" t="s">
         <v>23</v>
       </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8">
-        <v>0.02</v>
-      </c>
-      <c r="F8">
-        <v>0.02</v>
-      </c>
-      <c r="G8" t="s">
-        <v>11</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>1</v>
-      </c>
-      <c r="J8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>0</v>
-      </c>
-      <c r="B9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9">
-        <v>2</v>
-      </c>
-      <c r="E9">
-        <v>0.03</v>
-      </c>
-      <c r="F9">
-        <v>0.02</v>
-      </c>
-      <c r="G9" t="s">
-        <v>11</v>
-      </c>
-      <c r="H9">
-        <v>1</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>0</v>
-      </c>
-      <c r="B10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10">
-        <v>4</v>
-      </c>
-      <c r="E10">
-        <v>0.04</v>
-      </c>
-      <c r="F10">
-        <v>0.02</v>
-      </c>
-      <c r="G10" t="s">
-        <v>11</v>
-      </c>
-      <c r="H10">
-        <v>1</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="68" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>0</v>
-      </c>
-      <c r="B11" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D11">
-        <v>3</v>
-      </c>
-      <c r="E11">
-        <v>0.05</v>
-      </c>
-      <c r="F11">
-        <v>0.02</v>
-      </c>
-      <c r="G11" t="s">
-        <v>11</v>
-      </c>
-      <c r="H11">
-        <v>1</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
+      <c r="E151" t="s">
+        <v>12</v>
+      </c>
+      <c r="F151">
+        <v>1.661473164</v>
       </c>
     </row>
   </sheetData>

--- a/Participant_Images/101/101_WTP.xlsx
+++ b/Participant_Images/101/101_WTP.xlsx
@@ -1,21 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/melanieruiz/Desktop/WTP_SM_Choice2/Participant_Images/101/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99E17ED0-60D8-B64B-88D3-D5C6ED02A455}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4D3E432B-4E5E-5546-A5DB-3768A4007DEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2200" yWindow="760" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7580" yWindow="1840" windowWidth="27640" windowHeight="16940" xr2:uid="{43239A17-B7B8-8F4D-9005-DC6B54E46845}"/>
   </bookViews>
   <sheets>
-    <sheet name="101_WTP_1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -31,6 +47,9 @@
     <t>Right_Exp</t>
   </si>
   <si>
+    <t>WTP_ITI</t>
+  </si>
+  <si>
     <t>leftmoney</t>
   </si>
   <si>
@@ -114,16 +133,13 @@
   <si>
     <t>Shopping for clothes
 with friends</t>
-  </si>
-  <si>
-    <t>WTP_ITI</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -131,316 +147,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri Light"/>
-      <family val="2"/>
-      <scheme val="major"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF9C5700"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="12"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -448,157 +164,9 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.39997558519241921"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -606,49 +174,8 @@
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="42">
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -959,14 +486,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC377C07-4F04-5145-AF17-5061B339F16B}">
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="42.1640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -979,25 +511,25 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -1005,10 +537,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D2">
         <v>4</v>
@@ -1020,7 +552,7 @@
         <v>0.01</v>
       </c>
       <c r="G2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -1037,10 +569,10 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D3">
         <v>5</v>
@@ -1052,7 +584,7 @@
         <v>0.01</v>
       </c>
       <c r="G3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H3">
         <v>1</v>
@@ -1064,15 +596,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="68" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D4">
         <v>6</v>
@@ -1084,7 +616,7 @@
         <v>0.01</v>
       </c>
       <c r="G4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H4">
         <v>1</v>
@@ -1101,10 +633,10 @@
         <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -1116,7 +648,7 @@
         <v>0.01</v>
       </c>
       <c r="G5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H5">
         <v>1</v>
@@ -1133,10 +665,10 @@
         <v>0</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D6">
         <v>2</v>
@@ -1148,7 +680,7 @@
         <v>0.01</v>
       </c>
       <c r="G6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H6">
         <v>1</v>
@@ -1160,15 +692,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="68" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>0</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D7">
         <v>5</v>
@@ -1180,7 +712,7 @@
         <v>0.02</v>
       </c>
       <c r="G7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -1197,10 +729,10 @@
         <v>0</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -1212,7 +744,7 @@
         <v>0.02</v>
       </c>
       <c r="G8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -1229,10 +761,10 @@
         <v>0</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9">
         <v>2</v>
@@ -1244,7 +776,7 @@
         <v>0.02</v>
       </c>
       <c r="G9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H9">
         <v>1</v>
@@ -1261,10 +793,10 @@
         <v>0</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D10">
         <v>4</v>
@@ -1276,7 +808,7 @@
         <v>0.02</v>
       </c>
       <c r="G10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H10">
         <v>1</v>
@@ -1288,15 +820,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="68" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>0</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D11">
         <v>3</v>
@@ -1308,7 +840,7 @@
         <v>0.02</v>
       </c>
       <c r="G11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H11">
         <v>1</v>
@@ -1321,6 +853,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>